--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,41 @@
         <v>628800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>349200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43014,6 +43014,41 @@
         <v>349200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43049,6 +43049,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>237600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43084,6 +43084,41 @@
         <v>237600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2086500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +43119,41 @@
         <v>2086500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1003900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         <v>1003900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>735500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>735500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>421500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>421500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>167200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>167200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>100500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>100500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>509100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>509100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>662500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>662500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>476700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,76 @@
         <v>476700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1624500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2188200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,76 @@
         <v>2188200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2565900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1139100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,41 @@
         <v>1139100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>597000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,41 @@
         <v>597000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1875400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,41 @@
         <v>1875400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1643400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43644,6 +43644,41 @@
         <v>1643400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1394800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,76 @@
         <v>1394800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1018900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>446700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,41 @@
         <v>446700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>916000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,41 @@
         <v>916000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1734900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83054,6 +83054,41 @@
         <v>1734900</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>4285200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83089,6 +83089,41 @@
         <v>4285200</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>2842700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83124,6 +83124,41 @@
         <v>2842700</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>2682700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2365"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83159,6 +83159,41 @@
         <v>2682700</v>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2366" t="n">
+        <v>1402100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2366"/>
+  <dimension ref="A1:I2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83194,6 +83194,41 @@
         <v>1402100</v>
       </c>
     </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2367" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2367" t="n">
+        <v>1865900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2367"/>
+  <dimension ref="A1:I2368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83229,6 +83229,41 @@
         <v>1865900</v>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2368" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2368" t="n">
+        <v>107000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2368"/>
+  <dimension ref="A1:I2369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83264,6 +83264,41 @@
         <v>107000</v>
       </c>
     </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2369" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2369" t="n">
+        <v>205200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2369"/>
+  <dimension ref="A1:I2370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83299,6 +83299,41 @@
         <v>205200</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2370" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2370" t="n">
+        <v>629000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2370"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83334,6 +83334,41 @@
         <v>629000</v>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2371" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2371" t="n">
+        <v>1169500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2371"/>
+  <dimension ref="A1:I2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83369,6 +83369,41 @@
         <v>1169500</v>
       </c>
     </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2372" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2372" t="n">
+        <v>852900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83404,6 +83404,41 @@
         <v>852900</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>170900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2373"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83439,6 +83439,41 @@
         <v>170900</v>
       </c>
     </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2374" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83474,6 +83474,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2375" t="n">
+        <v>307500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83509,6 +83509,41 @@
         <v>307500</v>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8907.xlsx
+++ b/data/8907.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83544,6 +83544,41 @@
         <v>123000</v>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>8907</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>99500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
